--- a/系统占用内存分布.xlsx
+++ b/系统占用内存分布.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mayx-my.sharepoint.com/personal/kalinote_say-huahuo_com/Documents/Projects/OSProject/KalinoteOS/KalinoteOS1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="502" documentId="11_AD4DA82427541F7ACA7EB89E404D00AC6BE8DE13" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{683141C8-C7C6-44C9-8B93-FB0FEFCECF2C}"/>
+  <xr:revisionPtr revIDLastSave="594" documentId="11_AD4DA82427541F7ACA7EB89E404D00AC6BE8DE13" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7E3B4C92-B40C-4DE1-B082-9F3921DB1991}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,19 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>0x00400 - 0x004FF (256Byte)：BIOS数据区</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x00000 - 0x003FF (1K)：中断向量表 每项4字节，共256向</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本内存
-0x00000 - 0x9FFFF
-(640K)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -57,10 +51,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>0x00500 - 0x07BFF (256Byte)：自由内存区</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>0x08000 - 0x081FF (512Byte)：启动区数据</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -194,12 +184,6 @@
   </si>
   <si>
     <t>0x00200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>保护模式下
-系统占用的扩展内存
-0x100000 - 内存上限</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -244,10 +228,6 @@
       </rPr>
       <t>[注3、4]</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x300000 - 0x3FFFFF(1M)：栈及其他</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -298,15 +278,140 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>暂时没有其他使用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>注3：这里是把整个软盘的内容复制到0x100200 - 0x26F7FF这段扩展内存中，实际上可能有剩余空间，不会占完</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>注4：软盘最多1.44M(1440K)内容，所以在内存中只占到了0x267FFF，后面有30K空闲(0x268000 - 0x26F7FF)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护模式下
+系统占用的扩展内存
+0x100000 - 内存上限
+[注5]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注5：由于系统设计原因(32位，分段式内存管理)，最大只能识别3972MB(除系统占用)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0x300000 - 0x3FFFFF(1M)：栈及其他 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[注6]</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注6：这里面还包含一段内存管理表，所在位置是0x003C0000 - 0x003C7FFF (32KB)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本内存
+0x00000 - 0x9FFFF
+(640K)
+[注7]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注7：在bootpack.c中进行内存初始化时会清空 0x00001000 - 0x0009EFFF (约631K)，同时0x00400000以后的内存也会清空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x00500 - 0x07BFF (256Byte)：自由内存区</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[注8]</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注8：这一块区域在系统进入32位保护模式后，还有部分系统数据储存于此，分别如下：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00FEC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIFO缓冲区</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00FE4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shtctl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00EF9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>JP字体缓存</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10FE8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH字体缓存</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysinfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2F000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>echo 缓存地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时没有其他使用[注9]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注9：0x00400000以后的内存会在系统启动进入保护模式检查内存后清空，所以如果要保存系统数据，需要在清空后保存</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +419,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +514,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -475,7 +588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,52 +596,58 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -824,10 +943,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -840,642 +962,769 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
+      <c r="A1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="18" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="11"/>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-    </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="3" t="s">
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+    </row>
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+    </row>
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-    </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-    </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+    </row>
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="3" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+    </row>
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U11" s="7"/>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="A13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="5"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="5" t="s">
+      <c r="C25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="5" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="12"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="17"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="12"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="17"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="12"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="12"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="17"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="5" t="s">
+      <c r="A37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="12"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="17"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="12"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="17"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1539,22 +1788,36 @@
     <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:I39"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="J31:J39"/>
-    <mergeCell ref="K3:U3"/>
-    <mergeCell ref="A31:A32"/>
+  <mergeCells count="61">
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="K9:U9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="K14:U14"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="K6:U6"/>
+    <mergeCell ref="K7:U7"/>
+    <mergeCell ref="K8:U8"/>
     <mergeCell ref="C32:I33"/>
     <mergeCell ref="C36:I36"/>
     <mergeCell ref="K5:U5"/>
-    <mergeCell ref="K2:U2"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="K4:U4"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C14:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C27:I29"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="J2:J30"/>
     <mergeCell ref="C31:I31"/>
@@ -1568,25 +1831,28 @@
     <mergeCell ref="C10:I10"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C14:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="J31:J39"/>
+    <mergeCell ref="K3:U3"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
     <mergeCell ref="A25:A27"/>
-    <mergeCell ref="C27:I29"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:I39"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="B31:B39"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="C11:I13"/>
+    <mergeCell ref="K2:U2"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="K4:U4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/系统占用内存分布.xlsx
+++ b/系统占用内存分布.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mayx-my.sharepoint.com/personal/kalinote_say-huahuo_com/Documents/Projects/OSProject/KalinoteOS/KalinoteOS1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="594" documentId="11_AD4DA82427541F7ACA7EB89E404D00AC6BE8DE13" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7E3B4C92-B40C-4DE1-B082-9F3921DB1991}"/>
+  <xr:revisionPtr revIDLastSave="603" documentId="11_AD4DA82427541F7ACA7EB89E404D00AC6BE8DE13" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1B1226FB-E697-4780-BA0E-12F2E5A357DE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,7 +411,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>注9：0x00400000以后的内存会在系统启动进入保护模式检查内存后清空，所以如果要保存系统数据，需要在清空后保存</t>
+    <t>注9：0x00400000以后的内存会在系统启动进入保护模式检查内存后清空，在0x400000以前的内存不会被应用程序使用，作为系统内存</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -608,11 +608,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -620,35 +650,8 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -949,7 +952,7 @@
   <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -962,67 +965,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="12" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
       <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
-      <c r="B3" s="13"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1033,50 +1036,50 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
@@ -1087,50 +1090,50 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
     </row>
     <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
-      <c r="B7" s="13"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1141,50 +1144,50 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1195,32 +1198,32 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="8"/>
       <c r="K10" s="5" t="s">
         <v>61</v>
@@ -1229,26 +1232,26 @@
         <v>64</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="7"/>
+      <c r="O10" s="10"/>
       <c r="P10" s="8" t="s">
         <v>66</v>
       </c>
       <c r="Q10" s="8"/>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7" t="s">
+      <c r="S10" s="10"/>
+      <c r="T10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="U10" s="7"/>
+      <c r="U10" s="10"/>
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1266,28 +1269,28 @@
         <v>65</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O11" s="7"/>
+      <c r="O11" s="10"/>
       <c r="P11" s="8" t="s">
         <v>67</v>
       </c>
       <c r="Q11" s="8"/>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7" t="s">
+      <c r="S11" s="10"/>
+      <c r="T11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="U11" s="7"/>
+      <c r="U11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1308,7 +1311,7 @@
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1329,136 +1332,147 @@
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="8"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1476,7 +1490,7 @@
       <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
@@ -1490,7 +1504,7 @@
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
-      <c r="B24" s="16"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="8" t="s">
         <v>12</v>
       </c>
@@ -1506,7 +1520,7 @@
       <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -1522,7 +1536,7 @@
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
         <v>14</v>
       </c>
@@ -1536,7 +1550,7 @@
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
         <v>18</v>
       </c>
@@ -1552,7 +1566,7 @@
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1566,7 +1580,7 @@
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1580,7 +1594,7 @@
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="8" t="s">
         <v>15</v>
       </c>
@@ -1596,26 +1610,26 @@
       <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="17" t="s">
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="8"/>
@@ -1624,13 +1638,13 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="17"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="10"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1638,11 +1652,11 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="17"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="8" t="s">
         <v>42</v>
       </c>
@@ -1652,11 +1666,11 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="17"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="8" t="s">
         <v>43</v>
       </c>
@@ -1666,27 +1680,27 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="17"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="12" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="17"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="10"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="8" t="s">
         <v>54</v>
       </c>
@@ -1696,13 +1710,13 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="17"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="10"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="8" t="s">
         <v>74</v>
       </c>
@@ -1712,11 +1726,11 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="17"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -1724,7 +1738,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="17"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1789,35 +1803,14 @@
     <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="K9:U9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K14:U14"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="K6:U6"/>
-    <mergeCell ref="K7:U7"/>
-    <mergeCell ref="K8:U8"/>
-    <mergeCell ref="C32:I33"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="K5:U5"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C14:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C27:I29"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:I39"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="A33:A36"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="J2:J30"/>
     <mergeCell ref="C31:I31"/>
@@ -1834,22 +1827,43 @@
     <mergeCell ref="J31:J39"/>
     <mergeCell ref="K3:U3"/>
     <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C32:I33"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="K5:U5"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C14:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C27:I29"/>
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="T11:U11"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:I39"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C11:I13"/>
+    <mergeCell ref="K4:U4"/>
+    <mergeCell ref="K14:U15"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="K6:U6"/>
+    <mergeCell ref="K7:U7"/>
+    <mergeCell ref="K8:U8"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A2:A11"/>
-    <mergeCell ref="C11:I13"/>
     <mergeCell ref="K2:U2"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="K4:U4"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="K9:U9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/系统占用内存分布.xlsx
+++ b/系统占用内存分布.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="603" documentId="11_AD4DA82427541F7ACA7EB89E404D00AC6BE8DE13" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1B1226FB-E697-4780-BA0E-12F2E5A357DE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="2535" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,50 +608,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -951,8 +951,8 @@
   </sheetPr>
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -965,726 +965,726 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
       <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
     </row>
     <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="8"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="10" t="s">
+      <c r="M10" s="7"/>
+      <c r="N10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="8" t="s">
+      <c r="O10" s="12"/>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="10" t="s">
+      <c r="Q10" s="7"/>
+      <c r="R10" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10" t="s">
+      <c r="S10" s="12"/>
+      <c r="T10" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="U10" s="10"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="10" t="s">
+      <c r="M11" s="7"/>
+      <c r="N11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="8" t="s">
+      <c r="O11" s="12"/>
+      <c r="P11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="10" t="s">
+      <c r="Q11" s="7"/>
+      <c r="R11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10" t="s">
+      <c r="S11" s="12"/>
+      <c r="T11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="U11" s="10"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="8"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="8"/>
+      <c r="M13" s="7"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="12" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="21" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="8"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="8"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="8"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="8"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="8"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="8"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="8" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="18" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="18"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="18"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="17"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="8" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="18"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="17"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="8" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="18"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="11" t="s">
         <v>44</v>
       </c>
@@ -1694,51 +1694,51 @@
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="18"/>
+      <c r="J36" s="17"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="18"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="17"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="18"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="17"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="18"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="17"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1803,14 +1803,36 @@
     <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:I39"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="K6:U6"/>
+    <mergeCell ref="K7:U7"/>
+    <mergeCell ref="K8:U8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="K2:U2"/>
+    <mergeCell ref="K9:U9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="K5:U5"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C14:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="C11:I13"/>
+    <mergeCell ref="K4:U4"/>
+    <mergeCell ref="K14:U15"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="J2:J30"/>
     <mergeCell ref="C31:I31"/>
@@ -1827,43 +1849,21 @@
     <mergeCell ref="J31:J39"/>
     <mergeCell ref="K3:U3"/>
     <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:I39"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="A33:A36"/>
     <mergeCell ref="C32:I33"/>
     <mergeCell ref="C36:I36"/>
-    <mergeCell ref="K5:U5"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C14:I20"/>
-    <mergeCell ref="C21:I21"/>
     <mergeCell ref="C27:I29"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="C11:I13"/>
-    <mergeCell ref="K4:U4"/>
-    <mergeCell ref="K14:U15"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="K6:U6"/>
-    <mergeCell ref="K7:U7"/>
-    <mergeCell ref="K8:U8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="K2:U2"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="C30:I30"/>
     <mergeCell ref="C25:I25"/>
     <mergeCell ref="C26:I26"/>
-    <mergeCell ref="K9:U9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/系统占用内存分布.xlsx
+++ b/系统占用内存分布.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mayx-my.sharepoint.com/personal/kalinote_say-huahuo_com/Documents/Projects/OSProject/KalinoteOS/KalinoteOS1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="603" documentId="11_AD4DA82427541F7ACA7EB89E404D00AC6BE8DE13" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1B1226FB-E697-4780-BA0E-12F2E5A357DE}"/>
+  <xr:revisionPtr revIDLastSave="606" documentId="11_AD4DA82427541F7ACA7EB89E404D00AC6BE8DE13" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{04A51826-166A-4134-8194-7A89FF2C1128}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2535" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44520" yWindow="4680" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -286,13 +286,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>保护模式下
-系统占用的扩展内存
-0x100000 - 内存上限
-[注5]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>注5：由于系统设计原因(32位，分段式内存管理)，最大只能识别3972MB(除系统占用)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -412,6 +405,14 @@
   </si>
   <si>
     <t>注9：0x00400000以后的内存会在系统启动进入保护模式检查内存后清空，在0x400000以前的内存不会被应用程序使用，作为系统内存</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护模式下
+系统占用的扩展内存
+以及应用程序分配内存
+0x100000 - 内存上限
+[注5]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -611,44 +612,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -951,81 +952,81 @@
   </sheetPr>
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:I22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="9" width="10.625" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="21" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="11" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
       <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="13"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1036,50 +1037,50 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1090,50 +1091,50 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
+      <c r="K6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="B7" s="13"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1144,50 +1145,50 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
+      <c r="K7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
+      <c r="K8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1198,60 +1199,60 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
+      <c r="K9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="7"/>
       <c r="K10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" s="12"/>
+      <c r="N10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="9"/>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7"/>
-      <c r="R10" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="U10" s="12"/>
+      <c r="R10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="U10" s="9"/>
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1263,34 +1264,34 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" s="12"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7"/>
-      <c r="R11" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="U11" s="12"/>
+      <c r="R11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="U11" s="9"/>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1300,10 +1301,10 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7"/>
     </row>
@@ -1311,7 +1312,7 @@
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1321,10 +1322,10 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7"/>
       <c r="P13" s="5"/>
@@ -1332,147 +1333,147 @@
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
+      <c r="K14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1490,7 +1491,7 @@
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
@@ -1504,7 +1505,7 @@
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="16"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="7" t="s">
         <v>12</v>
       </c>
@@ -1610,26 +1611,26 @@
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="17" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="11" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="7"/>
@@ -1638,13 +1639,13 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="17"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1652,11 +1653,11 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="17"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="7" t="s">
         <v>42</v>
       </c>
@@ -1666,11 +1667,11 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="17"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="7" t="s">
         <v>43</v>
       </c>
@@ -1680,29 +1681,29 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="17"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="11" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="17"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1710,15 +1711,15 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="17"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1726,11 +1727,11 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="17"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1738,7 +1739,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="17"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1803,6 +1804,51 @@
     <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:I39"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="C32:I33"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="C27:I29"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="J2:J30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="B2:B21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="J31:J39"/>
+    <mergeCell ref="K3:U3"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="K5:U5"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C14:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="C11:I13"/>
+    <mergeCell ref="K4:U4"/>
+    <mergeCell ref="K14:U15"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="C24:I24"/>
     <mergeCell ref="K6:U6"/>
@@ -1819,51 +1865,6 @@
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R10:S10"/>
-    <mergeCell ref="K5:U5"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C14:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="C11:I13"/>
-    <mergeCell ref="K4:U4"/>
-    <mergeCell ref="K14:U15"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="J2:J30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="B2:B21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="J31:J39"/>
-    <mergeCell ref="K3:U3"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:I39"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="C32:I33"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C27:I29"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/系统占用内存分布.xlsx
+++ b/系统占用内存分布.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mayx-my.sharepoint.com/personal/kalinote_say-huahuo_com/Documents/Projects/OSProject/KalinoteOS/KalinoteOS1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="606" documentId="11_AD4DA82427541F7ACA7EB89E404D00AC6BE8DE13" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{04A51826-166A-4134-8194-7A89FF2C1128}"/>
+  <xr:revisionPtr revIDLastSave="615" documentId="11_AD4DA82427541F7ACA7EB89E404D00AC6BE8DE13" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ED2F82E7-168E-4DD1-A023-351BCCF8C037}"/>
   <bookViews>
     <workbookView xWindow="-44520" yWindow="4680" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -612,47 +612,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -952,8 +952,8 @@
   </sheetPr>
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -966,67 +966,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="14" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
       <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="15"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1037,50 +1037,50 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1091,50 +1091,50 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
     </row>
     <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1145,50 +1145,50 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1199,32 +1199,32 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="7"/>
       <c r="K10" s="5" t="s">
         <v>60</v>
@@ -1233,26 +1233,26 @@
         <v>63</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O10" s="9"/>
+      <c r="O10" s="13"/>
       <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
       <c r="Q10" s="7"/>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9" t="s">
+      <c r="S10" s="13"/>
+      <c r="T10" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="U10" s="9"/>
+      <c r="U10" s="13"/>
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1270,28 +1270,28 @@
         <v>64</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="9"/>
+      <c r="O11" s="13"/>
       <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q11" s="7"/>
-      <c r="R11" s="9" t="s">
+      <c r="R11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9" t="s">
+      <c r="S11" s="13"/>
+      <c r="T11" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="U11" s="9"/>
+      <c r="U11" s="13"/>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1312,7 +1312,7 @@
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1333,140 +1333,140 @@
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1521,7 +1521,7 @@
       <c r="A25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -1537,7 +1537,7 @@
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="B26" s="21"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="7" t="s">
         <v>14</v>
       </c>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="7" t="s">
         <v>18</v>
       </c>
@@ -1567,7 +1567,7 @@
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1581,7 +1581,7 @@
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1595,7 +1595,7 @@
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="7" t="s">
         <v>15</v>
       </c>
@@ -1611,26 +1611,26 @@
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
       <c r="J31" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="14" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="7"/>
@@ -1642,10 +1642,10 @@
       <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1656,8 +1656,8 @@
       <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="7" t="s">
         <v>42</v>
       </c>
@@ -1670,8 +1670,8 @@
       <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="7" t="s">
         <v>43</v>
       </c>
@@ -1684,24 +1684,24 @@
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="14" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
       <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="7" t="s">
         <v>53</v>
       </c>
@@ -1714,10 +1714,10 @@
       <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="7" t="s">
         <v>73</v>
       </c>
@@ -1730,8 +1730,8 @@
       <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1804,21 +1804,36 @@
     <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:I39"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="C32:I33"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C27:I29"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="K6:U6"/>
+    <mergeCell ref="K7:U7"/>
+    <mergeCell ref="K8:U8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="K2:U2"/>
+    <mergeCell ref="K9:U9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="K5:U5"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C14:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="C11:I13"/>
+    <mergeCell ref="K4:U4"/>
+    <mergeCell ref="K14:U15"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="J2:J30"/>
     <mergeCell ref="C31:I31"/>
@@ -1835,36 +1850,21 @@
     <mergeCell ref="J31:J39"/>
     <mergeCell ref="K3:U3"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="K5:U5"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C14:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="C11:I13"/>
-    <mergeCell ref="K4:U4"/>
-    <mergeCell ref="K14:U15"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="K6:U6"/>
-    <mergeCell ref="K7:U7"/>
-    <mergeCell ref="K8:U8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="K2:U2"/>
-    <mergeCell ref="K9:U9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:I39"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="C32:I33"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="C27:I29"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/系统占用内存分布.xlsx
+++ b/系统占用内存分布.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mayx-my.sharepoint.com/personal/kalinote_say-huahuo_com/Documents/Projects/OSProject/KalinoteOS/KalinoteOS1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="615" documentId="11_AD4DA82427541F7ACA7EB89E404D00AC6BE8DE13" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ED2F82E7-168E-4DD1-A023-351BCCF8C037}"/>
+  <xr:revisionPtr revIDLastSave="697" documentId="11_AD4DA82427541F7ACA7EB89E404D00AC6BE8DE13" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{600E89AB-DE0C-4082-9E6F-ACB044550651}"/>
   <bookViews>
-    <workbookView xWindow="-44520" yWindow="4680" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="2700" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>0x00400 - 0x004FF (256Byte)：BIOS数据区</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -188,10 +188,6 @@
   </si>
   <si>
     <t>0x00300000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>注2：这里可以作为实模式下的读写硬盘缓冲区，在保护模式下，应该在扩展内存中规划硬盘缓冲区</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -227,24 +223,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>[注3、4]</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0x90000 - 0x9FFFF (64K)：读写硬盘缓冲区(实模式) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[注2]</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -413,6 +391,59 @@
 以及应用程序分配内存
 0x100000 - 内存上限
 [注5]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>had结构体</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDE硬盘结构体</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdb结构体</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x90000 - 0x9FFFF (64K)：读写硬盘缓冲区(IDE)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[注2]</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注2：这一块本来是为IDE硬盘预留的读写缓冲区，但是情况有变，详细使用情况见下表：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3F0000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3F1000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3F2000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUG console sht</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -499,15 +530,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
       <name val="等线"/>
@@ -517,6 +539,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
@@ -589,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,10 +641,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -627,9 +662,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -648,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -952,8 +984,8 @@
   </sheetPr>
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:I24"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -966,780 +998,852 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-    </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="19" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+    </row>
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-    </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-    </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="19" t="s">
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-    </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-    </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-    </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-    </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="U10" s="13"/>
-    </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="U11" s="13"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="7"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="6" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="U14" s="8"/>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="U15" s="8"/>
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+    </row>
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="15"/>
+      <c r="C21" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="7" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="7" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="7" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="13"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="13"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="18"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="18"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="7" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="19"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="18"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="18"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="18"/>
+      <c r="A38" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="18"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="19"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1803,37 +1907,33 @@
     <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="K6:U6"/>
-    <mergeCell ref="K7:U7"/>
-    <mergeCell ref="K8:U8"/>
+  <mergeCells count="83">
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="K10:U10"/>
+    <mergeCell ref="K11:U11"/>
+    <mergeCell ref="K12:U12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="K2:U2"/>
-    <mergeCell ref="K9:U9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="K5:U5"/>
+    <mergeCell ref="K13:U13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C24:I24"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C23:I23"/>
     <mergeCell ref="C14:I20"/>
     <mergeCell ref="C21:I21"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
     <mergeCell ref="C11:I13"/>
-    <mergeCell ref="K4:U4"/>
-    <mergeCell ref="K14:U15"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="J2:J30"/>
     <mergeCell ref="C31:I31"/>
@@ -1850,7 +1950,6 @@
     <mergeCell ref="J31:J39"/>
     <mergeCell ref="K3:U3"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C38:I39"/>
     <mergeCell ref="C34:I34"/>
@@ -1860,11 +1959,38 @@
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="C32:I33"/>
     <mergeCell ref="C36:I36"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="C27:I29"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="C30:I30"/>
     <mergeCell ref="C25:I25"/>
     <mergeCell ref="C26:I26"/>
+    <mergeCell ref="K9:U9"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="K8:U8"/>
+    <mergeCell ref="K18:U19"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
